--- a/results/gurobi_cplex_comparison/seed_30_k_50.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_50.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.011</v>
+        <v>1.626</v>
       </c>
       <c r="F2">
-        <v>0.033</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.029</v>
+        <v>2.229</v>
       </c>
       <c r="F3">
-        <v>0.046</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.029</v>
+        <v>3.033</v>
       </c>
       <c r="F4">
-        <v>0.058</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.033</v>
+        <v>3.964</v>
       </c>
       <c r="F5">
-        <v>0.064</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.033</v>
+        <v>4.967</v>
       </c>
       <c r="F6">
-        <v>0.073</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.041</v>
+        <v>6.216</v>
       </c>
       <c r="F7">
-        <v>0.073</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06900000000000001</v>
+        <v>7.578</v>
       </c>
       <c r="F8">
-        <v>0.092</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.051</v>
+        <v>8.842000000000001</v>
       </c>
       <c r="F9">
-        <v>0.133</v>
+        <v>2.147</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.057</v>
+        <v>10.38</v>
       </c>
       <c r="F10">
-        <v>0.093</v>
+        <v>2.417</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.199</v>
+        <v>12.387</v>
       </c>
       <c r="F11">
-        <v>91.366</v>
+        <v>17.534</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.171</v>
+        <v>14.247</v>
       </c>
       <c r="F12">
-        <v>111.884</v>
+        <v>71.203</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.319</v>
+        <v>16.148</v>
       </c>
       <c r="F13">
-        <v>105.322</v>
+        <v>24.916</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.179</v>
+        <v>18.131</v>
       </c>
       <c r="F14">
-        <v>107.194</v>
+        <v>15.791</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.078</v>
+        <v>20.001</v>
       </c>
       <c r="F15">
-        <v>65.253</v>
+        <v>16.615</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.157</v>
+        <v>22.424</v>
       </c>
       <c r="F16">
-        <v>78.97199999999999</v>
+        <v>20.413</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.222</v>
+        <v>25.132</v>
       </c>
       <c r="F17">
-        <v>123.328</v>
+        <v>17.338</v>
       </c>
     </row>
   </sheetData>
